--- a/biology/Biochimie/Cauxine/Cauxine.xlsx
+++ b/biology/Biochimie/Cauxine/Cauxine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La cauxine est une peptidase qui est excrétée en grandes quantités dans l'urine de chat. La cauxine a été remarquée car elle hydrolyse la 3-méthylbutanol-cystéinylglycine (3-MBCG) dans l'urine en félinine qui ensuite se dégrade lentement pour former la phéromone du chat putative 3-mercapto-3-méthylbutan-1-ol (MMB) :
 La cauxine, protéine de l'urine de félin, a été signalée en 2008 pour agir comme un agent de nucléation pour cristaux de struvite, dans un système in vivo contenant du magnésium, de l'ammonium et des ions phosphate. Ainsi, cette protéine peut agir comme une source de calculs urinaires pour félin.
